--- a/flaskTesting/todos.xlsx
+++ b/flaskTesting/todos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,46 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Todo 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Todo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Todo 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Todo 5</t>
         </is>
       </c>
     </row>
